--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B250B4-9EDD-4C71-87D0-E1F04F43813B}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1890" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5244" yWindow="4596" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$116</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -953,7 +953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,12 +968,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1327,23 +1321,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
@@ -1363,7 +1358,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +1418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1538,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1563,7 +1558,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1603,7 +1598,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1643,7 +1638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1663,7 +1658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1723,7 +1718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1743,7 +1738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1763,7 +1758,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1903,7 +1898,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +1918,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1943,7 +1938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1997,7 +1992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2031,7 +2026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2065,7 +2060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2082,7 +2077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2099,7 +2094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2116,7 +2111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2150,7 +2145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2167,7 +2162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2184,7 +2179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2201,7 +2196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2218,7 +2213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2269,7 +2264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2286,7 +2281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2320,7 +2315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2337,7 +2332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2354,7 +2349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2371,7 +2366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -2388,7 +2383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -2405,7 +2400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2422,7 +2417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2439,7 +2434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2456,7 +2451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2473,7 +2468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2490,7 +2485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2507,7 +2502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2541,7 +2536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -2558,7 +2553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2570,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2592,7 +2587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2626,7 +2621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2643,7 +2638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2677,7 +2672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -2694,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2711,7 +2706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2728,7 +2723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2745,7 +2740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2762,7 +2757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -2779,7 +2774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -2796,7 +2791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -2813,7 +2808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -2830,7 +2825,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -2847,7 +2842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -2864,7 +2859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2881,7 +2876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2898,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2915,7 +2910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2932,7 +2927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2966,7 +2961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -2983,7 +2978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -3000,7 +2995,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3017,7 +3012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3034,7 +3029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -3051,7 +3046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -3068,7 +3063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -3085,7 +3080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3102,7 +3097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -3119,7 +3114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -3153,7 +3148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -3170,7 +3165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -3221,7 +3216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3238,7 +3233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3255,7 +3250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3272,7 +3267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3289,7 +3284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3306,7 +3301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3323,7 +3318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3340,7 +3335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3357,7 +3352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3374,7 +3369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3391,7 +3386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3409,6 +3404,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F116" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Major capsid protein"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B250B4-9EDD-4C71-87D0-E1F04F43813B}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB41831-7524-48AB-9D15-E476AFBA23BB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5244" yWindow="4596" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1321,11 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3352,7 +3351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3404,12 +3403,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F116" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Major capsid protein"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
+      <sortCondition ref="E1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB41831-7524-48AB-9D15-E476AFBA23BB}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{297E486C-4BBC-434D-A4B5-8CFEB7D8A1D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6970" yWindow="3830" windowWidth="19760" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$116</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1321,23 +1321,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" customWidth="1"/>
+    <col min="3" max="3" width="33.36328125" customWidth="1"/>
+    <col min="4" max="4" width="50.453125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3403,7 +3404,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:F116" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Ribonucleoside-diphosphate reductase small subunit"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
       <sortCondition ref="E1"/>
     </sortState>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE55054C-4709-4A75-B6B3-CD6128F7F126}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4847AA7E-269E-440B-9B35-70659E9D458F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10305" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="302">
   <si>
     <t>OG0000000</t>
   </si>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,6 +1973,9 @@
       <c r="E32" t="s">
         <v>30</v>
       </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3028,7 +3031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>93</v>
       </c>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4847AA7E-269E-440B-9B35-70659E9D458F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81962960-49A7-493B-8C7A-8C03CEE0BA85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="304">
   <si>
     <t>OG0000000</t>
   </si>
@@ -947,6 +947,12 @@
   </si>
   <si>
     <t>Putative gene identity_family output</t>
+  </si>
+  <si>
+    <t>OG0000115</t>
+  </si>
+  <si>
+    <t>Nucleoside triphosphate pyrophosphatase</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,12 +3411,22 @@
         <v>114</v>
       </c>
     </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
-      <sortCondition ref="E1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,17 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81962960-49A7-493B-8C7A-8C03CEE0BA85}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75489858-7E58-438C-8266-8DC8FE1366A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$117</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -41,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="233">
   <si>
     <t>OG0000000</t>
   </si>
@@ -397,18 +410,6 @@
     <t>family orthogroup</t>
   </si>
   <si>
-    <t>DNA-directed RNA polymerase 008R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myristoylated protein 053R </t>
-  </si>
-  <si>
-    <t>phosphotransferase 057R</t>
-  </si>
-  <si>
-    <t>Flap endonuclease 1 or RAD2-like endonuclease 095R</t>
-  </si>
-  <si>
     <t>CTD phosphatase-like protein</t>
   </si>
   <si>
@@ -421,33 +422,15 @@
     <t>Transcription factor S</t>
   </si>
   <si>
-    <t xml:space="preserve">Probable deoxycytidine kinase </t>
-  </si>
-  <si>
     <t>DNA-directed RNA polymerase subunit beta</t>
   </si>
   <si>
     <t>Uncharacterised protein</t>
   </si>
   <si>
-    <t>helicase 009L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> membrane protein</t>
-  </si>
-  <si>
-    <t>helicase 022R</t>
-  </si>
-  <si>
     <t>Ribonucleoside-diphosphate reductase small subunit</t>
   </si>
   <si>
-    <t>Putative ribonuclease 3</t>
-  </si>
-  <si>
-    <t>Putative FAD-linked sulfhydryl oxidase 088</t>
-  </si>
-  <si>
     <t>Immediate-early protein ICP-46</t>
   </si>
   <si>
@@ -463,96 +446,27 @@
     <t>Probable DNA (cytosine-5)-methyltransferase</t>
   </si>
   <si>
-    <t>E3 ubiquitin-protein ligase TRIM39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> electron transfer flavoprotein</t>
-  </si>
-  <si>
-    <t>phosphotransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA-directed RNA polymerases II and IV subunit </t>
-  </si>
-  <si>
-    <t>myristoylated protein</t>
-  </si>
-  <si>
-    <t>E3 ubiquitin-protein ligase makorin-3</t>
-  </si>
-  <si>
     <t>Bifunctional protein FolD</t>
   </si>
   <si>
     <t>tRNA (cytidine(56)-2'-O)-methyltransferase</t>
   </si>
   <si>
-    <t>TIC 40, chloroplastic</t>
-  </si>
-  <si>
     <t>DNA polymerase delta catalytic subunit</t>
   </si>
   <si>
     <t>Aspartate carbamoyltransferase catalytic subunit</t>
   </si>
   <si>
-    <t>Ribonucleoside-diphosphate reductase small chain</t>
-  </si>
-  <si>
-    <t>Putative RAD2-like endonuclease 095R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deoxycytidine kinase</t>
-  </si>
-  <si>
     <t>FAD-linked sulfhydryl oxidase</t>
   </si>
   <si>
     <t>DNA (cytosine-5)-methyltransferase</t>
   </si>
   <si>
-    <t>Lysine--tRNA ligase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full=Snake venom vascular endothelial growth factor </t>
-  </si>
-  <si>
-    <t>cytosol aminopeptidase</t>
-  </si>
-  <si>
-    <t>serine/threonine-protein kinase</t>
-  </si>
-  <si>
-    <t>Probable electron transfer flavoprotein subunit alpha, mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcription factor 282R </t>
-  </si>
-  <si>
-    <t>Helicase</t>
-  </si>
-  <si>
     <t>Branched-chain-amino-acid aminotransferase</t>
   </si>
   <si>
-    <t xml:space="preserve">Putative 2-hydroxyacid dehydrogenase YPL113C </t>
-  </si>
-  <si>
-    <t>Succinate--CoA ligase</t>
-  </si>
-  <si>
-    <t>ribonuclease 3</t>
-  </si>
-  <si>
-    <t>Glutamate--tRNA ligase</t>
-  </si>
-  <si>
-    <t>UPF0246 protein Bpet1601</t>
-  </si>
-  <si>
-    <t>Myosin-VIIa</t>
-  </si>
-  <si>
     <t>Auxin transport protein BIG</t>
   </si>
   <si>
@@ -565,21 +479,12 @@
     <t>Early 31 kDa protein</t>
   </si>
   <si>
-    <t>Small ribosomal subunit protein uS4m</t>
-  </si>
-  <si>
     <t>Sodium-coupled neutral amino acid symporter 2</t>
   </si>
   <si>
     <t>Carboxy-S-adenosyl-L-methionine synthase</t>
   </si>
   <si>
-    <t>ADP-ribose glycohydrolase MACROD1</t>
-  </si>
-  <si>
-    <t>Putative DNA-directed RNA polymerase II subunit RPB2 homolog</t>
-  </si>
-  <si>
     <t>ATP-dependent helicase/nuclease subunit A</t>
   </si>
   <si>
@@ -589,45 +494,21 @@
     <t>Zinc finger CCCH-type antiviral protein 1</t>
   </si>
   <si>
-    <t>Uncharacterized ATP-dependent helicase IRC2</t>
-  </si>
-  <si>
-    <t>Ankyrin repeat protein RF_0381</t>
-  </si>
-  <si>
     <t>ATP-dependent DNA helicase RecG</t>
   </si>
   <si>
     <t>CCA-adding enzyme</t>
   </si>
   <si>
-    <t>tRNA(Ile2) 2-agmatinylcytidine synthetase TiaS</t>
-  </si>
-  <si>
     <t>DNA polymerase alpha catalytic subunit</t>
   </si>
   <si>
     <t>Ketol-acid reductoisomerase (NADP(+))</t>
   </si>
   <si>
-    <t>Glutamyl-tRNA reductase</t>
-  </si>
-  <si>
-    <t>Large ribosomal subunit protein uL18</t>
-  </si>
-  <si>
-    <t>Protocadherin beta-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Protein translocase subunit SecD </t>
   </si>
   <si>
-    <t>GTPase Era</t>
-  </si>
-  <si>
-    <t>Folylpolyglutamate synthase, mitochondrial</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transcription factor SFL2 </t>
   </si>
   <si>
@@ -637,54 +518,30 @@
     <t>CD83 antigen</t>
   </si>
   <si>
-    <t xml:space="preserve">ankyrin repeat protein </t>
-  </si>
-  <si>
     <t>RNA replication polyprotein</t>
   </si>
   <si>
     <t>ATP-dependent RNA helicase</t>
   </si>
   <si>
-    <t>Oleandomycin polyketide synthase</t>
-  </si>
-  <si>
     <t>E3 ubiquitin-protein ligase HACE1</t>
   </si>
   <si>
-    <t>Golgin subfamily A member 1</t>
-  </si>
-  <si>
     <t>E3 ubiquitin-protein ligas</t>
   </si>
   <si>
     <t>Thiamine-phosphate synthase</t>
   </si>
   <si>
-    <t xml:space="preserve">LON peptidase N-terminal domain and RING finger </t>
-  </si>
-  <si>
-    <t>E3 ubiquitin-protein ligase RNF185</t>
-  </si>
-  <si>
     <t>Neurofilament heavy polypeptid</t>
   </si>
   <si>
     <t>Caspase-1</t>
   </si>
   <si>
-    <t>UvrABC system protein C</t>
-  </si>
-  <si>
     <t>Probable succinyl-CoA:3-ketoacid coenzyme A transferase</t>
   </si>
   <si>
-    <t>No hits</t>
-  </si>
-  <si>
-    <t>Adhesion G-protein coupled receptor F3</t>
-  </si>
-  <si>
     <t>Demethylmenaquinone methyltransferase</t>
   </si>
   <si>
@@ -700,9 +557,6 @@
     <t>Suppressor of cytokine signaling 1</t>
   </si>
   <si>
-    <t>2-succinyl-5-enolpyruvyl-6-hydroxy-3-cyclohexene-1-carboxylate synthase</t>
-  </si>
-  <si>
     <t>Lipopolysaccharide core galacturonosyltransferase</t>
   </si>
   <si>
@@ -721,24 +575,12 @@
     <t>UPF319 protein HSM_0266</t>
   </si>
   <si>
-    <t>Probable 2-(5''-triphosphoribosyl)-3'-dephosphocoenzyme-A synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutamyl-tRNA(Gln) amidotransferase subunit F mitochondrial </t>
-  </si>
-  <si>
     <t>Sodium/potassium-transporting ATPase subunit alpha-4</t>
   </si>
   <si>
-    <t>Phosphoglucosamine mutase</t>
-  </si>
-  <si>
     <t>tRNA-specific 2-thiouridylase MnmA</t>
   </si>
   <si>
-    <t xml:space="preserve">Zinc finger BED domain-containing protein </t>
-  </si>
-  <si>
     <t>Titin homolog</t>
   </si>
   <si>
@@ -766,177 +608,60 @@
     <t>Auxin transport protein</t>
   </si>
   <si>
-    <t>DNA polymerase alpha catalytic subunit or Thymidylate kinase</t>
-  </si>
-  <si>
-    <t>E3 ubiquitin-protein ligase makorin</t>
-  </si>
-  <si>
-    <t>Ketol-acid reductoisomerase (NADP(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyclic nucleotide-gated ion channel </t>
-  </si>
-  <si>
     <t>Flap endonuclease 1</t>
   </si>
   <si>
     <t>Kinase protein</t>
   </si>
   <si>
-    <t>transcriptional regulatory protein</t>
-  </si>
-  <si>
-    <t>Golgin subfamily A member 5</t>
-  </si>
-  <si>
-    <t>Capsid assembly protein UL37 homolog</t>
-  </si>
-  <si>
     <t>Protein translocase subunit SecD</t>
   </si>
   <si>
-    <t>Chromosome transmission fidelity protein</t>
-  </si>
-  <si>
-    <t>ATP synthase subunit delta</t>
-  </si>
-  <si>
-    <t>Snake venom vascular endothelial growth factor</t>
-  </si>
-  <si>
-    <t>Folylpolyglutamate synthase, mitochondria</t>
-  </si>
-  <si>
     <t>Transcription factor SFL2</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Putative serine/threonine-protein kinase</t>
-  </si>
-  <si>
-    <t>Probable electron transfer flavoprotein subunit</t>
-  </si>
-  <si>
-    <t>Putative transcription factor 282R</t>
-  </si>
-  <si>
     <t>D83 antigen</t>
   </si>
   <si>
     <t>Ankyrin repeat protein</t>
   </si>
   <si>
-    <t>Enolase</t>
-  </si>
-  <si>
-    <t>Bifunctional protein HldE</t>
-  </si>
-  <si>
-    <t>ATP-dependent RNA helicase A</t>
-  </si>
-  <si>
-    <t>Uncharacterized protein 094L</t>
-  </si>
-  <si>
     <t>Putative SAP domain-containing protein</t>
   </si>
   <si>
-    <t>S-methyl-5'-thioadenosine phosphorylase</t>
-  </si>
-  <si>
-    <t>Putative membrane protein</t>
-  </si>
-  <si>
-    <t>3-demethoxyubiquinol 3-hydroxylase</t>
-  </si>
-  <si>
     <t>Uncharacterised protien</t>
   </si>
   <si>
-    <t>RING finger protein 145 homolog</t>
-  </si>
-  <si>
-    <t>fimbrial-like protein YraH</t>
-  </si>
-  <si>
-    <t>uppressor of cytokine signaling 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">succinyl-5-enolpyruvyl-6-hydroxy-3-cyclohexene-1-carboxylate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helicase 022R </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lipopolysaccharide core galacturonosyltransferase </t>
   </si>
   <si>
-    <t>Probable polyketide synthase 14</t>
-  </si>
-  <si>
     <t>kinase 439L</t>
   </si>
   <si>
-    <t>ankyrin repeat protein RF_0381</t>
-  </si>
-  <si>
-    <t>UPF0173 metal-dependent hydrolase Msil_0741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RING finger protein or E3 ubiquitin-protein ligase </t>
-  </si>
-  <si>
     <t>ADP-ribose glycohydrolase</t>
   </si>
   <si>
     <t>UPF0319 protein HSM_0266</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2-agmatinylcytidine synthetase TiaS</t>
-  </si>
-  <si>
     <t>2-(5''-triphosphoribosyl)-3'-dephosphocoenzyme-A synthase</t>
   </si>
   <si>
     <t>DNA-directed RNA polymerase II subunit</t>
   </si>
   <si>
-    <t>Endoribonuclease YbeY</t>
-  </si>
-  <si>
     <t>Glutamyl-tRNA(Gln) amidotransferase subunit F</t>
   </si>
   <si>
-    <t>Uncharacterized transporter C22F8.04</t>
-  </si>
-  <si>
     <t xml:space="preserve">E3 ubiquitin-protein ligase </t>
   </si>
   <si>
-    <t>ATP-dependent DNA helicase RecG;</t>
-  </si>
-  <si>
-    <t>CCA-adding enzyme;</t>
-  </si>
-  <si>
     <t xml:space="preserve">tRNA-specific 2-thiouridylase MnmA </t>
   </si>
   <si>
     <t>Neurofilament heavy polypeptide</t>
   </si>
   <si>
-    <t xml:space="preserve">Superoxide dismutase </t>
-  </si>
-  <si>
-    <t>Urotensin-1</t>
-  </si>
-  <si>
-    <t>E3 SUMO-protein ligase ZBED1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recombination protein RecR </t>
   </si>
   <si>
@@ -953,6 +678,81 @@
   </si>
   <si>
     <t>Nucleoside triphosphate pyrophosphatase</t>
+  </si>
+  <si>
+    <t>Vascular endothelial growth factor</t>
+  </si>
+  <si>
+    <t>DNA-directed RNA polymerase</t>
+  </si>
+  <si>
+    <t>Flap endonuclease 1 or RAD2-like endonuclease</t>
+  </si>
+  <si>
+    <t>Putative RAD2-like endonuclease</t>
+  </si>
+  <si>
+    <t>Kinase protien</t>
+  </si>
+  <si>
+    <t>Helicase protein</t>
+  </si>
+  <si>
+    <t>Myristoylated protein</t>
+  </si>
+  <si>
+    <t>Phosphotransferase</t>
+  </si>
+  <si>
+    <t>Uncharacterized protein</t>
+  </si>
+  <si>
+    <t>Membrane protein</t>
+  </si>
+  <si>
+    <t>Ribonuclease 3</t>
+  </si>
+  <si>
+    <t>Electron transfer flavoprotein</t>
+  </si>
+  <si>
+    <t>ATPase</t>
+  </si>
+  <si>
+    <t>Uncharacterised Protien</t>
+  </si>
+  <si>
+    <t>Cytosol aminopeptidase</t>
+  </si>
+  <si>
+    <t>Serine/threonine-protein kinase</t>
+  </si>
+  <si>
+    <t>Transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankyrin repeat protein </t>
+  </si>
+  <si>
+    <t>Agmatinylcytidine synthetase TiaS</t>
+  </si>
+  <si>
+    <t>RING finger protein</t>
+  </si>
+  <si>
+    <t>RING finger protien</t>
+  </si>
+  <si>
+    <t>Folylpolyglutamate synthase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP-dependent RNA helicase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succinyl-5-enolpyruvyl-6-hydroxy-3-cyclohexene-1-carboxylate </t>
+  </si>
+  <si>
+    <t>Urotensin</t>
   </si>
 </sst>
 </file>
@@ -976,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,6 +786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,13 +808,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,2104 +1136,2108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>278</v>
-      </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
       </c>
       <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>175</v>
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
-        <v>156</v>
+      <c r="D39" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>281</v>
-      </c>
-      <c r="C66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" t="s">
-        <v>206</v>
+      <c r="D66" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>196</v>
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" t="s">
-        <v>261</v>
+        <v>54</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>198</v>
+        <v>77</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
         <v>199</v>
       </c>
-      <c r="C80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="s">
-        <v>256</v>
-      </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" t="s">
-        <v>290</v>
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>205</v>
+      <c r="B85" t="s">
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>205</v>
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
         <v>93</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="C97" t="s">
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
         <v>102</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
         <v>110</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>303</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
+      <sortCondition ref="F1:F117"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75489858-7E58-438C-8266-8DC8FE1366A1}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF99B5EB-D7BE-4B66-A96B-C56D216D6E1B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="2130" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="226">
   <si>
     <t>OG0000000</t>
   </si>
@@ -410,15 +410,9 @@
     <t>family orthogroup</t>
   </si>
   <si>
-    <t>CTD phosphatase-like protein</t>
-  </si>
-  <si>
     <t>Major capsid protein</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA polymerase delta catalytic subunit </t>
-  </si>
-  <si>
     <t>Transcription factor S</t>
   </si>
   <si>
@@ -440,9 +434,6 @@
     <t>SAP domain-containing protein</t>
   </si>
   <si>
-    <t>Ribosome-recycling factor</t>
-  </si>
-  <si>
     <t>Probable DNA (cytosine-5)-methyltransferase</t>
   </si>
   <si>
@@ -452,15 +443,9 @@
     <t>tRNA (cytidine(56)-2'-O)-methyltransferase</t>
   </si>
   <si>
-    <t>DNA polymerase delta catalytic subunit</t>
-  </si>
-  <si>
     <t>Aspartate carbamoyltransferase catalytic subunit</t>
   </si>
   <si>
-    <t>FAD-linked sulfhydryl oxidase</t>
-  </si>
-  <si>
     <t>DNA (cytosine-5)-methyltransferase</t>
   </si>
   <si>
@@ -563,9 +548,6 @@
     <t>TNF receptor-associated factor 2</t>
   </si>
   <si>
-    <t>Vacuolar membrane protease</t>
-  </si>
-  <si>
     <t>Replication protein E1</t>
   </si>
   <si>
@@ -608,9 +590,6 @@
     <t>Auxin transport protein</t>
   </si>
   <si>
-    <t>Flap endonuclease 1</t>
-  </si>
-  <si>
     <t>Kinase protein</t>
   </si>
   <si>
@@ -629,15 +608,9 @@
     <t>Putative SAP domain-containing protein</t>
   </si>
   <si>
-    <t>Uncharacterised protien</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lipopolysaccharide core galacturonosyltransferase </t>
   </si>
   <si>
-    <t>kinase 439L</t>
-  </si>
-  <si>
     <t>ADP-ribose glycohydrolase</t>
   </si>
   <si>
@@ -686,24 +659,12 @@
     <t>DNA-directed RNA polymerase</t>
   </si>
   <si>
-    <t>Flap endonuclease 1 or RAD2-like endonuclease</t>
-  </si>
-  <si>
-    <t>Putative RAD2-like endonuclease</t>
-  </si>
-  <si>
-    <t>Kinase protien</t>
-  </si>
-  <si>
     <t>Helicase protein</t>
   </si>
   <si>
     <t>Myristoylated protein</t>
   </si>
   <si>
-    <t>Phosphotransferase</t>
-  </si>
-  <si>
     <t>Uncharacterized protein</t>
   </si>
   <si>
@@ -719,18 +680,12 @@
     <t>ATPase</t>
   </si>
   <si>
-    <t>Uncharacterised Protien</t>
-  </si>
-  <si>
     <t>Cytosol aminopeptidase</t>
   </si>
   <si>
     <t>Serine/threonine-protein kinase</t>
   </si>
   <si>
-    <t>Transcription factor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ankyrin repeat protein </t>
   </si>
   <si>
@@ -740,9 +695,6 @@
     <t>RING finger protein</t>
   </si>
   <si>
-    <t>RING finger protien</t>
-  </si>
-  <si>
     <t>Folylpolyglutamate synthase</t>
   </si>
   <si>
@@ -753,6 +705,33 @@
   </si>
   <si>
     <t>Urotensin</t>
+  </si>
+  <si>
+    <t>Deoxynucleoside kinase</t>
+  </si>
+  <si>
+    <t>NIF NLI interacting factor</t>
+  </si>
+  <si>
+    <t>DNA polymerase</t>
+  </si>
+  <si>
+    <t>D5 family NTPase</t>
+  </si>
+  <si>
+    <t>Kinase</t>
+  </si>
+  <si>
+    <t>Erv1 / Alr family</t>
+  </si>
+  <si>
+    <t>Proliferating cell nuclear antigen</t>
+  </si>
+  <si>
+    <t>DNA repair protein RAD2</t>
+  </si>
+  <si>
+    <t>Replication factor</t>
   </si>
 </sst>
 </file>
@@ -776,24 +755,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -808,14 +775,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,2111 +1099,2113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>122</v>
       </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>215</v>
+      <c r="D19" t="s">
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
       <c r="F32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>182</v>
+      <c r="B33" t="s">
+        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>182</v>
+      <c r="D33" t="s">
+        <v>176</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>130</v>
+      <c r="B35" t="s">
+        <v>127</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>130</v>
+      <c r="D35" t="s">
+        <v>127</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>131</v>
+      <c r="B36" t="s">
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>131</v>
+      <c r="D36" t="s">
+        <v>128</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>221</v>
+      <c r="B37" t="s">
+        <v>121</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>221</v>
+      <c r="D37" t="s">
+        <v>121</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>133</v>
+      <c r="B38" t="s">
+        <v>129</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>133</v>
+      <c r="D38" t="s">
+        <v>129</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>191</v>
+      <c r="B39" t="s">
+        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>191</v>
+      <c r="D39" t="s">
+        <v>121</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>208</v>
+      <c r="D40" t="s">
+        <v>199</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>223</v>
+      <c r="B42" t="s">
+        <v>209</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>223</v>
+      <c r="D42" t="s">
+        <v>209</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>224</v>
+      <c r="B43" t="s">
+        <v>225</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>136</v>
+      <c r="B44" t="s">
+        <v>131</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>136</v>
+      <c r="D44" t="s">
+        <v>131</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>123</v>
+      <c r="B45" t="s">
+        <v>121</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>123</v>
+      <c r="D45" t="s">
+        <v>121</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>126</v>
+      <c r="B46" t="s">
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>126</v>
+      <c r="D46" t="s">
+        <v>124</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>123</v>
+      <c r="D47" t="s">
+        <v>121</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
+      <c r="B48" t="s">
+        <v>121</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>191</v>
+      <c r="B49" t="s">
+        <v>121</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>191</v>
+      <c r="D49" t="s">
+        <v>121</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>191</v>
+      <c r="B50" t="s">
+        <v>121</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>191</v>
+      <c r="D50" t="s">
+        <v>121</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>137</v>
+      <c r="B51" t="s">
+        <v>132</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>137</v>
+      <c r="D51" t="s">
+        <v>132</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>138</v>
+      <c r="B52" t="s">
+        <v>133</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>138</v>
+      <c r="D52" t="s">
+        <v>133</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>123</v>
+      <c r="B54" t="s">
+        <v>121</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>123</v>
+      <c r="D54" t="s">
+        <v>121</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>142</v>
+      <c r="B55" t="s">
+        <v>137</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>143</v>
+      <c r="B57" t="s">
+        <v>138</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>144</v>
+      <c r="B58" t="s">
+        <v>139</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>145</v>
+      <c r="B59" t="s">
+        <v>140</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>145</v>
+      <c r="D59" t="s">
+        <v>140</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>146</v>
+      <c r="B62" t="s">
+        <v>141</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>146</v>
+      <c r="D62" t="s">
+        <v>141</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>147</v>
+      <c r="B63" t="s">
+        <v>142</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>147</v>
+      <c r="D63" t="s">
+        <v>142</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>226</v>
+      <c r="B64" t="s">
+        <v>211</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>226</v>
+      <c r="D64" t="s">
+        <v>211</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
         <v>148</v>
       </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="E78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="B82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
         <v>152</v>
       </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
         <v>153</v>
       </c>
-      <c r="E76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" t="s">
-        <v>199</v>
-      </c>
-      <c r="C83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>228</v>
-      </c>
-      <c r="E85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>201</v>
+      <c r="B87" t="s">
+        <v>192</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>159</v>
+      <c r="D87" t="s">
+        <v>154</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>160</v>
+      <c r="B88" t="s">
+        <v>155</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>160</v>
+      <c r="D88" t="s">
+        <v>155</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>191</v>
+      <c r="B89" t="s">
+        <v>121</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>191</v>
+      <c r="D89" t="s">
+        <v>121</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>161</v>
+      <c r="B90" t="s">
+        <v>156</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>161</v>
+      <c r="D90" t="s">
+        <v>156</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>191</v>
+      <c r="B91" t="s">
+        <v>121</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>191</v>
+      <c r="D91" t="s">
+        <v>121</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>191</v>
+      <c r="B92" t="s">
+        <v>121</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>191</v>
+      <c r="D92" t="s">
+        <v>121</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>162</v>
+      <c r="B93" t="s">
+        <v>157</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>162</v>
+      <c r="D93" t="s">
+        <v>157</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>163</v>
+      <c r="B94" t="s">
+        <v>158</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>163</v>
+      <c r="D94" t="s">
+        <v>158</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>164</v>
+      <c r="B95" t="s">
+        <v>159</v>
       </c>
       <c r="C95" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>164</v>
+      <c r="D95" t="s">
+        <v>159</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>165</v>
+      <c r="B96" t="s">
+        <v>160</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>165</v>
+      <c r="D96" t="s">
+        <v>160</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>231</v>
+      <c r="B98" t="s">
+        <v>215</v>
       </c>
       <c r="C98" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>231</v>
+      <c r="D98" t="s">
+        <v>215</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>167</v>
+      <c r="D99" t="s">
+        <v>162</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>169</v>
+      <c r="B101" t="s">
+        <v>121</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>169</v>
+      <c r="D101" t="s">
+        <v>121</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>170</v>
+      <c r="D102" t="s">
+        <v>164</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>171</v>
+      <c r="B103" t="s">
+        <v>165</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>171</v>
+      <c r="D103" t="s">
+        <v>165</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>195</v>
+      <c r="B104" t="s">
+        <v>186</v>
       </c>
       <c r="C104" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>172</v>
+      <c r="D104" t="s">
+        <v>166</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>196</v>
+      <c r="B105" t="s">
+        <v>187</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>198</v>
+      <c r="B106" t="s">
+        <v>189</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>173</v>
+      <c r="B107" t="s">
+        <v>167</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>173</v>
+      <c r="D107" t="s">
+        <v>167</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>191</v>
+      <c r="B108" t="s">
+        <v>121</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>191</v>
+      <c r="D108" t="s">
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>200</v>
+      <c r="B109" t="s">
+        <v>191</v>
       </c>
       <c r="C109" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>174</v>
+      <c r="D109" t="s">
+        <v>168</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>191</v>
+      <c r="B110" t="s">
+        <v>121</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>191</v>
+      <c r="D110" t="s">
+        <v>121</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>175</v>
+      <c r="B111" t="s">
+        <v>169</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>175</v>
+      <c r="D111" t="s">
+        <v>169</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>232</v>
+      <c r="B112" t="s">
+        <v>216</v>
       </c>
       <c r="C112" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>176</v>
+      <c r="D112" t="s">
+        <v>170</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>177</v>
+      <c r="B113" t="s">
+        <v>171</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>177</v>
+      <c r="D113" t="s">
+        <v>171</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>202</v>
+      <c r="B114" t="s">
+        <v>193</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>178</v>
+      <c r="D114" t="s">
+        <v>172</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>179</v>
+      <c r="B115" t="s">
+        <v>173</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>179</v>
+      <c r="D115" t="s">
+        <v>173</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>180</v>
+      <c r="B116" t="s">
+        <v>174</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>180</v>
+      <c r="D116" t="s">
+        <v>174</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>206</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="B117" t="s">
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="D117" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
-      <sortCondition ref="F1:F117"/>
+      <sortCondition ref="E1:E117"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF99B5EB-D7BE-4B66-A96B-C56D216D6E1B}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EB9A2D-DCEC-4C6B-8506-252471FFB8AB}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="2130" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={D03ED0BE-2578-4A1A-BADF-798B07BE20D9}</author>
   </authors>
   <commentList>
-    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1091,7 +1091,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B53" dT="2025-03-20T09:11:27.73" personId="{703703E6-9D9B-47AF-A5A0-AB7429D54F18}" id="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
+  <threadedComment ref="B47" dT="2025-03-20T09:11:27.73" personId="{703703E6-9D9B-47AF-A5A0-AB7429D54F18}" id="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
     <text>A number of hits for S-adenosylmethionine synthase too.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1102,21 +1102,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -1136,1052 +1136,1052 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B15" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D15" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B55" t="s">
         <v>188</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D55" t="s">
         <v>188</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2300,364 +2300,364 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" t="s">
         <v>78</v>
       </c>
-      <c r="D65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" t="s">
         <v>82</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
         <v>212</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C85" t="s">
         <v>83</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D85" t="s">
         <v>212</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E85" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" t="s">
-        <v>214</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" t="s">
-        <v>190</v>
-      </c>
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="s">
-        <v>153</v>
-      </c>
-      <c r="E85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -3201,7 +3201,7 @@
   </sheetData>
   <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
-      <sortCondition ref="E1:E117"/>
+      <sortCondition ref="C1:C117"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EB9A2D-DCEC-4C6B-8506-252471FFB8AB}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13811BB-58B2-47AA-AC3D-ADBC5FA91274}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1099,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="45" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1136,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -3200,6 +3200,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="OG0000007"/>
+        <filter val="OG0000017"/>
+        <filter val="OG0000021"/>
+        <filter val="OG0000024"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
       <sortCondition ref="C1:C117"/>
     </sortState>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13811BB-58B2-47AA-AC3D-ADBC5FA91274}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA2E4111-EE53-46F0-8854-2766540C2258}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1099,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="45" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="45" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1136,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -3199,19 +3199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="OG0000007"/>
-        <filter val="OG0000017"/>
-        <filter val="OG0000021"/>
-        <filter val="OG0000024"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
-      <sortCondition ref="C1:C117"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA2E4111-EE53-46F0-8854-2766540C2258}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB3C613-6DBF-4009-9273-0BA4C480BA92}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={D03ED0BE-2578-4A1A-BADF-798B07BE20D9}</author>
-  </authors>
-  <commentList>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A number of hits for S-adenosylmethionine synthase too.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,9 +781,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Hannaford, Polly (AAHL, Geelong ACDP)" id="{703703E6-9D9B-47AF-A5A0-AB7429D54F18}" userId="S::han394@csiro.au::ce3b099b-feb8-492e-85ff-2cbd0f66ca7f" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,21 +1069,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B47" dT="2025-03-20T09:11:27.73" personId="{703703E6-9D9B-47AF-A5A0-AB7429D54F18}" id="{D03ED0BE-2578-4A1A-BADF-798B07BE20D9}">
-    <text>A number of hits for S-adenosylmethionine synthase too.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="45" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="45" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,1044 +1110,1002 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+      <c r="F7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
         <v>121</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
         <v>121</v>
@@ -2183,937 +2113,979 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>166</v>
+      </c>
+      <c r="E90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B91" t="s">
         <v>211</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C91" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D91" t="s">
         <v>211</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E91" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" t="s">
-        <v>210</v>
-      </c>
-      <c r="E77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
         <v>53</v>
       </c>
-      <c r="B78" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
-        <v>149</v>
-      </c>
-      <c r="E78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="D104" t="s">
         <v>152</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E104" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B108" t="s">
         <v>192</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C108" t="s">
         <v>85</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D108" t="s">
         <v>154</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E108" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>121</v>
-      </c>
-      <c r="C92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" t="s">
-        <v>121</v>
-      </c>
-      <c r="E92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" t="s">
-        <v>157</v>
-      </c>
-      <c r="E93" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" t="s">
-        <v>158</v>
-      </c>
-      <c r="E94" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" t="s">
-        <v>159</v>
-      </c>
-      <c r="E95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" t="s">
-        <v>160</v>
-      </c>
-      <c r="E96" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" t="s">
-        <v>161</v>
-      </c>
-      <c r="E97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" t="s">
-        <v>215</v>
-      </c>
-      <c r="E98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" t="s">
-        <v>163</v>
-      </c>
-      <c r="E100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>164</v>
-      </c>
-      <c r="E102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" t="s">
-        <v>165</v>
-      </c>
-      <c r="E103" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" t="s">
-        <v>186</v>
-      </c>
-      <c r="C104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-      <c r="E104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>90</v>
-      </c>
-      <c r="B105" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" t="s">
-        <v>187</v>
-      </c>
-      <c r="E105" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E106" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" t="s">
-        <v>167</v>
-      </c>
-      <c r="E107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" t="s">
         <v>106</v>
       </c>
-      <c r="D108" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" t="s">
-        <v>191</v>
-      </c>
-      <c r="C109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>121</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
         <v>108</v>
       </c>
-      <c r="D110" t="s">
-        <v>121</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D111" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" t="s">
-        <v>169</v>
-      </c>
-      <c r="E111" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3135,36 +3107,36 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E115" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3199,9 +3171,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
+      <sortCondition ref="A1:A117"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sequence_matches_gene_identity.xlsx
+++ b/sequence_matches_gene_identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB3C613-6DBF-4009-9273-0BA4C480BA92}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{5AC5AB59-17B1-4906-9063-81A58D7F681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20586B1C-3430-4FEA-8703-7C66128227D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,10 +778,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,11 +1067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="45" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1192,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1408,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1563,7 +1559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1630,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1667,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1722,7 +1718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1739,7 +1735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1773,7 +1769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1826,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +1900,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1921,7 +1917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2830,7 +2826,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2986,7 +2982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3037,7 +3033,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3071,7 +3067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3122,7 +3118,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3139,7 +3135,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -3172,6 +3168,88 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="OG0000000"/>
+        <filter val="OG0000004"/>
+        <filter val="OG0000005"/>
+        <filter val="OG0000006"/>
+        <filter val="OG0000007"/>
+        <filter val="OG0000008"/>
+        <filter val="OG0000011"/>
+        <filter val="OG0000012"/>
+        <filter val="OG0000013"/>
+        <filter val="OG0000014"/>
+        <filter val="OG0000015"/>
+        <filter val="OG0000025"/>
+        <filter val="OG0000026"/>
+        <filter val="OG0000027"/>
+        <filter val="OG0000028"/>
+        <filter val="OG0000029"/>
+        <filter val="OG0000030"/>
+        <filter val="OG0000031"/>
+        <filter val="OG0000032"/>
+        <filter val="OG0000033"/>
+        <filter val="OG0000034"/>
+        <filter val="OG0000035"/>
+        <filter val="OG0000036"/>
+        <filter val="OG0000037"/>
+        <filter val="OG0000038"/>
+        <filter val="OG0000039"/>
+        <filter val="OG0000040"/>
+        <filter val="OG0000041"/>
+        <filter val="OG0000042"/>
+        <filter val="OG0000043"/>
+        <filter val="OG0000044"/>
+        <filter val="OG0000045"/>
+        <filter val="OG0000046"/>
+        <filter val="OG0000047"/>
+        <filter val="OG0000048"/>
+        <filter val="OG0000049"/>
+        <filter val="OG0000051"/>
+        <filter val="OG0000052"/>
+        <filter val="OG0000053"/>
+        <filter val="OG0000054"/>
+        <filter val="OG0000055"/>
+        <filter val="OG0000056"/>
+        <filter val="OG0000057"/>
+        <filter val="OG0000058"/>
+        <filter val="OG0000059"/>
+        <filter val="OG0000060"/>
+        <filter val="OG0000061"/>
+        <filter val="OG0000062"/>
+        <filter val="OG0000063"/>
+        <filter val="OG0000064"/>
+        <filter val="OG0000065"/>
+        <filter val="OG0000073"/>
+        <filter val="OG0000075"/>
+        <filter val="OG0000076"/>
+        <filter val="OG0000077"/>
+        <filter val="OG0000078"/>
+        <filter val="OG0000079"/>
+        <filter val="OG0000080"/>
+        <filter val="OG0000081"/>
+        <filter val="OG0000082"/>
+        <filter val="OG0000083"/>
+        <filter val="OG0000084"/>
+        <filter val="OG0000085"/>
+        <filter val="OG0000087"/>
+        <filter val="OG0000094"/>
+        <filter val="OG0000095"/>
+        <filter val="OG0000096"/>
+        <filter val="OG0000097"/>
+        <filter val="OG0000098"/>
+        <filter val="OG0000099"/>
+        <filter val="OG0000100"/>
+        <filter val="OG0000102"/>
+        <filter val="OG0000103"/>
+        <filter val="OG0000104"/>
+        <filter val="OG0000105"/>
+        <filter val="OG0000108"/>
+        <filter val="OG0000111"/>
+        <filter val="OG0000113"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
       <sortCondition ref="A1:A117"/>
     </sortState>
